--- a/LO6/LM/data.xlsx
+++ b/LO6/LM/data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erwinplanck/Desktop/Physics/Physics Lab III/LO6/LM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DFEBE58-4275-E147-AF1F-6BCD21F60D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287E6F56-80F2-9C46-A092-331ACAA27855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15960" xr2:uid="{4AC39E88-1551-2640-A782-635FDB43E35A}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940" xr2:uid="{4AC39E88-1551-2640-A782-635FDB43E35A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ACCOMODATION I</t>
   </si>
@@ -68,9 +68,6 @@
     <t>NOL AC</t>
   </si>
   <si>
-    <t>SQARE</t>
-  </si>
-  <si>
     <t>L3 NOAC</t>
   </si>
   <si>
@@ -99,6 +96,12 @@
   </si>
   <si>
     <t>Mth</t>
+  </si>
+  <si>
+    <t>SQUARE</t>
+  </si>
+  <si>
+    <t>theo</t>
   </si>
 </sst>
 </file>
@@ -452,31 +455,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD7E7D6-B681-9048-BDC9-7CEFBDB02A91}">
   <dimension ref="B1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="150" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="D2">
         <v>-19.899999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>-D5*10/(D5-10)</f>
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="D3">
         <v>-19.8</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
@@ -484,12 +494,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
@@ -504,7 +514,7 @@
         <v>-9.4499999999999993</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -519,7 +529,7 @@
         <v>-14.95</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>6</v>
       </c>
@@ -534,7 +544,7 @@
         <v>-4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>7</v>
       </c>
@@ -545,9 +555,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>-2</v>
@@ -560,9 +570,9 @@
         <v>-2.1052631578947367</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <f>AVERAGE(D2,D3)</f>
@@ -576,10 +586,14 @@
         <f>-C15/D15</f>
         <v>-2.1005291005291009</v>
       </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f>E2/D15</f>
+        <v>2.1164021164021167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -610,25 +624,29 @@
         <f>-C18/D18</f>
         <v>-4.0510204081632653</v>
       </c>
+      <c r="F18">
+        <f>E2/D18</f>
+        <v>4.0816326530612246</v>
+      </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>16</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>17</v>
-      </c>
-      <c r="H21" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
@@ -654,7 +672,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <f>-5.3/D17</f>
@@ -663,11 +681,11 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27">
-        <f>C18*F22/(C22*D22)</f>
-        <v>-5.8514739229024952</v>
+        <f>-C15*F22/(C22*D22)</f>
+        <v>5.8514739229024952</v>
       </c>
     </row>
   </sheetData>
